--- a/config/landscapes_special.xlsx
+++ b/config/landscapes_special.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cursed</t>
+          <t>Approaching Army</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>PLUNDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Approaching Army</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>RISING_SUN</t>
         </is>
